--- a/static/files/Formidling_eng.xlsx
+++ b/static/files/Formidling_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/st06810/Dropbox/UiB/blog/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79831862-00E4-5747-AB18-F71449AB930E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB1030-0D8F-8A49-805A-C2B455C49DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="1500" windowWidth="38600" windowHeight="24800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4883,7 +4883,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4950,7 +4950,7 @@
         <v>387</v>
       </c>
       <c r="I2" s="18">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">

--- a/static/files/Formidling_eng.xlsx
+++ b/static/files/Formidling_eng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/st06810/Dropbox/UiB/blog/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB1030-0D8F-8A49-805A-C2B455C49DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18809FD-AC9E-CE4E-8E5A-5ED048B13056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="1500" windowWidth="38600" windowHeight="24800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="388">
   <si>
     <t>p</t>
   </si>
@@ -4880,10 +4880,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6577,6 +6577,35 @@
         <v>80</v>
       </c>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>2020</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E59" t="s">
+        <v>306</v>
+      </c>
+      <c r="F59" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>290</v>
+      </c>
+      <c r="I59">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:I59" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I59">
